--- a/static/templates_base_financiera/2 ESTRATEGIA Y PLAN DE AUDITORIA/3 ENTENDIMIENTO  CONTROL INTERNO/1 CUESTIONARIOS/2 Cuestionario con Maxima Autoridad.xlsx
+++ b/static/templates_base_financiera/2 ESTRATEGIA Y PLAN DE AUDITORIA/3 ENTENDIMIENTO  CONTROL INTERNO/1 CUESTIONARIOS/2 Cuestionario con Maxima Autoridad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\workana\Trabajo Victor Guatemala\auditaPro\auditapro\static\templates_base\2 ESTRATEGIA Y PLAN DE AUDITORIA\3 ENTENDIMIENTO  CONTROL INTERNO\1 CUESTIONARIOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\2 ESTRATEGIA Y PLAN DE AUDITORIA\3 ENTENDIMIENTO  CONTROL INTERNO\1 CUESTIONARIOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584B9049-D3D4-450F-8F4B-4CB2345BCC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B87246-041A-451E-A084-C87833500AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,21 +109,6 @@
   </si>
   <si>
     <r>
-      <t>ENTIDAD XXXXXXXXXXXXXXXXXXXXX</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Auditoria de Estados Financieros           </t>
     </r>
     <r>
@@ -162,6 +147,9 @@
   </si>
   <si>
     <t>Logo</t>
+  </si>
+  <si>
+    <t>Entidad XXXXXXX</t>
   </si>
 </sst>
 </file>
@@ -656,7 +644,7 @@
   <dimension ref="A2:P89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A6"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,12 +662,12 @@
     </row>
     <row r="3" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="24"/>
       <c r="F3" s="1"/>
       <c r="G3" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -706,8 +694,8 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:16" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C8" s="23" t="s">
-        <v>27</v>
+      <c r="C8" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="2"/>
@@ -715,7 +703,7 @@
     </row>
     <row r="9" spans="1:16" ht="19.5" x14ac:dyDescent="0.25">
       <c r="C9" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="2"/>
@@ -723,13 +711,13 @@
     </row>
     <row r="10" spans="1:16" ht="19.5" x14ac:dyDescent="0.25">
       <c r="C10" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:16" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C11" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="6"/>
